--- a/InputFiles/TC04_CDS_Filter_LibrarySelection-PolyA.xlsx
+++ b/InputFiles/TC04_CDS_Filter_LibrarySelection-PolyA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\CDS Automation\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\prasanna\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FCE9F-B9DE-4397-ACA9-297738AD0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71E4C4-C918-4E3E-9D03-5F637DA908A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
